--- a/AzentioAutomationFramework_FMS_Ajith/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Ajith/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -14,14 +14,15 @@
     <sheet name="FMSParam_login" sheetId="2" r:id="rId5"/>
     <sheet name="FMS_Login" sheetId="1" r:id="rId6"/>
     <sheet name="SadsLogin" sheetId="3" r:id="rId7"/>
-    <sheet name="TestExecution" sheetId="7" r:id="rId8"/>
+    <sheet name="ApplicationForFinancialFacility" sheetId="11" r:id="rId8"/>
+    <sheet name="TestExecution" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="88">
   <si>
     <t>Password</t>
   </si>
@@ -111,9 +112,6 @@
     <t>EndExecution</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Master Screen Name</t>
   </si>
   <si>
@@ -141,12 +139,6 @@
     <t>MODEL.B</t>
   </si>
   <si>
-    <t>Fms_01</t>
-  </si>
-  <si>
-    <t>Fms_01_D1</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -262,6 +254,42 @@
   </si>
   <si>
     <t>FMS_ParamUser12</t>
+  </si>
+  <si>
+    <t>TestCase ID</t>
+  </si>
+  <si>
+    <t>DataSet ID</t>
+  </si>
+  <si>
+    <t>ApplicationFor</t>
+  </si>
+  <si>
+    <t>New Facility</t>
+  </si>
+  <si>
+    <t>CIF NO</t>
+  </si>
+  <si>
+    <t>Facility Type</t>
+  </si>
+  <si>
+    <t>Country of Financing</t>
+  </si>
+  <si>
+    <t>Min Value</t>
+  </si>
+  <si>
+    <t>Max Value</t>
+  </si>
+  <si>
+    <t>999999999999999</t>
+  </si>
+  <si>
+    <t>AFFF_01</t>
+  </si>
+  <si>
+    <t>AFFF_01_D1</t>
   </si>
 </sst>
 </file>
@@ -272,7 +300,7 @@
     <numFmt numFmtId="164" formatCode="&quot;Rs.&quot;#,##0.00;[Red]\-&quot;Rs.&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -342,8 +370,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +424,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +493,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -516,6 +563,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7"/>
@@ -854,7 +906,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -882,28 +934,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
@@ -1069,7 +1121,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="123" defaultRowHeight="15"/>
@@ -1153,10 +1205,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>0</v>
@@ -1170,10 +1222,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1">
         <v>123</v>
@@ -1187,7 +1239,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1204,10 +1256,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>321</v>
@@ -1221,10 +1273,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <v>321</v>
@@ -1238,10 +1290,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
         <v>321</v>
@@ -1255,10 +1307,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1">
         <v>321</v>
@@ -1272,10 +1324,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1">
         <v>321</v>
@@ -1289,10 +1341,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1">
         <v>321</v>
@@ -1306,10 +1358,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1">
         <v>321</v>
@@ -1323,10 +1375,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1">
         <v>321</v>
@@ -1340,10 +1392,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1">
         <v>321</v>
@@ -1357,10 +1409,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1">
         <v>321</v>
@@ -1398,10 +1450,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>0</v>
@@ -1415,10 +1467,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1">
         <v>123</v>
@@ -1432,7 +1484,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1449,10 +1501,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>321</v>
@@ -1466,10 +1518,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <v>321</v>
@@ -1483,10 +1535,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
         <v>321</v>
@@ -1500,10 +1552,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1">
         <v>321</v>
@@ -1517,10 +1569,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1">
         <v>321</v>
@@ -1534,10 +1586,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1">
         <v>321</v>
@@ -1551,10 +1603,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1">
         <v>321</v>
@@ -1568,10 +1620,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1">
         <v>321</v>
@@ -1585,10 +1637,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1">
         <v>321</v>
@@ -1602,10 +1654,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1">
         <v>321</v>
@@ -1627,7 +1679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -1643,10 +1695,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>0</v>
@@ -1660,10 +1712,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1">
         <v>123</v>
@@ -1677,7 +1729,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1694,10 +1746,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>321</v>
@@ -1711,10 +1763,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <v>321</v>
@@ -1728,10 +1780,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
         <v>321</v>
@@ -1745,10 +1797,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1">
         <v>321</v>
@@ -1762,10 +1814,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1">
         <v>321</v>
@@ -1779,10 +1831,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1">
         <v>321</v>
@@ -1796,10 +1848,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1">
         <v>321</v>
@@ -1813,10 +1865,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1">
         <v>321</v>
@@ -1830,10 +1882,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1">
         <v>321</v>
@@ -1847,10 +1899,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1">
         <v>321</v>
@@ -1888,10 +1940,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>0</v>
@@ -1905,10 +1957,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1">
         <v>123</v>
@@ -1922,7 +1974,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1939,10 +1991,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>321</v>
@@ -1956,10 +2008,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <v>321</v>
@@ -1973,10 +2025,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
         <v>321</v>
@@ -1990,10 +2042,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1">
         <v>321</v>
@@ -2007,10 +2059,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1">
         <v>321</v>
@@ -2024,10 +2076,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1">
         <v>321</v>
@@ -2041,10 +2093,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1">
         <v>321</v>
@@ -2058,10 +2110,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1">
         <v>321</v>
@@ -2075,10 +2127,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1">
         <v>321</v>
@@ -2092,10 +2144,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1">
         <v>321</v>
@@ -2118,7 +2170,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -2131,10 +2183,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="37" t="s">
         <v>0</v>
@@ -2142,7 +2194,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -2153,10 +2205,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1">
         <v>123</v>
@@ -2170,10 +2222,88 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15">
+      <c r="A2" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="42">
+        <v>727</v>
+      </c>
+      <c r="E2" s="42">
+        <v>369</v>
+      </c>
+      <c r="F2" s="42">
+        <v>320</v>
+      </c>
+      <c r="G2" s="42">
+        <v>2</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40" defaultRowHeight="15"/>
@@ -2226,13 +2356,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -2322,7 +2452,7 @@
       <c r="J8" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D8">
+  <conditionalFormatting sqref="D2 D4:D8">
     <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",D2)))</formula>
     </cfRule>

--- a/AzentioAutomationFramework_FMS_Ajith/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Ajith/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -14,15 +14,16 @@
     <sheet name="FMSParam_login" sheetId="2" r:id="rId5"/>
     <sheet name="FMS_Login" sheetId="1" r:id="rId6"/>
     <sheet name="SadsLogin" sheetId="3" r:id="rId7"/>
-    <sheet name="ApplicationForFinancialFacility" sheetId="11" r:id="rId8"/>
-    <sheet name="TestExecution" sheetId="7" r:id="rId9"/>
+    <sheet name="FacilitiesManagement" sheetId="12" r:id="rId8"/>
+    <sheet name="ApplicationForFinancialFacility" sheetId="11" r:id="rId9"/>
+    <sheet name="TestExecution" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="124">
   <si>
     <t>Password</t>
   </si>
@@ -286,10 +287,118 @@
     <t>999999999999999</t>
   </si>
   <si>
-    <t>AFFF_01</t>
-  </si>
-  <si>
-    <t>AFFF_01_D1</t>
+    <t>AT_FM_010</t>
+  </si>
+  <si>
+    <t>AT_FM_010_D1</t>
+  </si>
+  <si>
+    <t>SearchStatus</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>AT_AFF_004</t>
+  </si>
+  <si>
+    <t>SectorCode</t>
+  </si>
+  <si>
+    <t>BriefName</t>
+  </si>
+  <si>
+    <t>AT_AFF_004_01</t>
+  </si>
+  <si>
+    <t>AT_AFF_004_02</t>
+  </si>
+  <si>
+    <t>AT_AFF_004_01_D1</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>AT_AFF_024</t>
+  </si>
+  <si>
+    <t>AT_AFF_024_D1</t>
+  </si>
+  <si>
+    <t>AT_AFF_008</t>
+  </si>
+  <si>
+    <t>AT_AFF_008_D1</t>
+  </si>
+  <si>
+    <t>ReasonForSubmission</t>
+  </si>
+  <si>
+    <t>New Request</t>
+  </si>
+  <si>
+    <t>CIFNO</t>
+  </si>
+  <si>
+    <t>FacilityType</t>
+  </si>
+  <si>
+    <t>TotalLimit</t>
+  </si>
+  <si>
+    <t>ProductClass</t>
+  </si>
+  <si>
+    <t>MarginValue</t>
+  </si>
+  <si>
+    <t>RequestID</t>
+  </si>
+  <si>
+    <t>DecisionField</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Approval Committee</t>
+  </si>
+  <si>
+    <t>Recommendation</t>
+  </si>
+  <si>
+    <t>AT_AFF_019</t>
+  </si>
+  <si>
+    <t>AT_AFF_019_D1</t>
+  </si>
+  <si>
+    <t>CollateralType</t>
+  </si>
+  <si>
+    <t>BriefDescription</t>
+  </si>
+  <si>
+    <t>LongDescription</t>
+  </si>
+  <si>
+    <t>Test Collateral</t>
+  </si>
+  <si>
+    <t>CollateralCurrency</t>
+  </si>
+  <si>
+    <t>Investment Committee</t>
+  </si>
+  <si>
+    <t>4364</t>
+  </si>
+  <si>
+    <t>896</t>
+  </si>
+  <si>
+    <t>762</t>
   </si>
 </sst>
 </file>
@@ -300,7 +409,7 @@
     <numFmt numFmtId="164" formatCode="&quot;Rs.&quot;#,##0.00;[Red]\-&quot;Rs.&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -377,8 +486,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,8 +554,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -478,6 +599,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -493,7 +638,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -518,7 +663,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -568,6 +712,16 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7"/>
@@ -906,7 +1060,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -922,197 +1076,430 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="18.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" style="32" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="28.85546875" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="19.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="11.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="27.7109375" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="31" width="17.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="9" max="16384" style="3" width="28.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23">
-        <v>1</v>
-      </c>
-      <c r="H2" s="24"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22">
+        <v>1</v>
+      </c>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="31"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="4.5870078740157476" bottom="4.5870078740157476" header="4.3901574803149597" footer="4.3901574803149597"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="40" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="13.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="15.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="14.5703125" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="4" width="26.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="28.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="27.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="26.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="25.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="4" width="40.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D7:D11 D2:D5 C5 C2">
+    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="8.7188976377952763" bottom="8.7188976377952763" header="8.5220472440944892" footer="8.5220472440944892"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1126,56 +1513,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="123" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="123" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="30.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="38.42578125" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="123.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30">
-      <c r="A2" s="34"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="35"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="6"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30">
       <c r="A5" s="9"/>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="37" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1195,28 +1582,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="27.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="34.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1440,28 +1827,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="22.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="27.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="2" width="18.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="21.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1685,28 +2072,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1930,28 +2317,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2175,20 +2562,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
+    <col min="4" max="16384" style="2" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2224,248 +2611,338 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>84</v>
-      </c>
+      <c r="C1" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="42">
-        <v>727</v>
-      </c>
-      <c r="E2" s="42">
-        <v>369</v>
-      </c>
-      <c r="F2" s="42">
-        <v>320</v>
-      </c>
-      <c r="G2" s="42">
-        <v>2</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>85</v>
-      </c>
+      <c r="C2" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="13.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.5703125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="26.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="40" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.48828125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.484375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="17.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="12" t="s">
+    <row r="1" spans="1:24" ht="15">
+      <c r="A1" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="V1" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="W1" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="X1" s="44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15">
+      <c r="A2" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+    </row>
+    <row r="3" spans="1:24" ht="15">
+      <c r="A3" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="51">
+        <v>727</v>
+      </c>
+      <c r="M3" s="51">
+        <v>221</v>
+      </c>
+      <c r="N3" s="51">
+        <v>10000</v>
+      </c>
+      <c r="O3" s="51">
+        <v>1</v>
+      </c>
+      <c r="P3" s="51">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="R3" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="S3" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="T3" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+    </row>
+    <row r="4" spans="1:24" ht="15">
+      <c r="A4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="51">
         <v>26</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="6">
+      <c r="V4" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="W4" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="X4" s="51">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="15">
+      <c r="A5" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="41">
+        <v>727</v>
+      </c>
+      <c r="E5" s="41">
+        <v>369</v>
+      </c>
+      <c r="F5" s="41">
+        <v>320</v>
+      </c>
+      <c r="G5" s="41">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="H5" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+    </row>
+    <row r="6" spans="1:24" ht="15">
+      <c r="A6" s="50"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2 D4:D8">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="8.7188976377952763" bottom="8.7188976377952763" header="8.5220472440944892" footer="8.5220472440944892"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AzentioAutomationFramework_FMS_Ajith/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Ajith/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="143">
   <si>
     <t>Password</t>
   </si>
@@ -395,10 +395,67 @@
     <t>4364</t>
   </si>
   <si>
-    <t>896</t>
-  </si>
-  <si>
     <t>762</t>
+  </si>
+  <si>
+    <t>AT_FM_061</t>
+  </si>
+  <si>
+    <t>AT_FM_062</t>
+  </si>
+  <si>
+    <t>AT_FM_061_D1</t>
+  </si>
+  <si>
+    <t>AT_FM_062_D1</t>
+  </si>
+  <si>
+    <t>AT_FM_061_PreReq</t>
+  </si>
+  <si>
+    <t>DecisionApproveLevel1</t>
+  </si>
+  <si>
+    <t>EstimatorName</t>
+  </si>
+  <si>
+    <t>SolicitorName</t>
+  </si>
+  <si>
+    <t>TotalValue</t>
+  </si>
+  <si>
+    <t>CountryofFinancing</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>DecisionApproveLevel2</t>
+  </si>
+  <si>
+    <t>DecisionApproveLevel3</t>
+  </si>
+  <si>
+    <t>AT_FM_062_Prereq_01</t>
+  </si>
+  <si>
+    <t>AT_FM_062_01</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4523 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4533 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4547 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4556 </t>
   </si>
 </sst>
 </file>
@@ -638,7 +695,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -722,6 +779,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7"/>
@@ -733,7 +792,79 @@
     <cellStyle name="Result" xfId="1"/>
     <cellStyle name="Result2" xfId="2"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1272,16 +1403,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="9.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="13.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="4" width="27.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="4" width="15.0" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="14.5703125" collapsed="true"/>
     <col min="5" max="6" bestFit="true" customWidth="true" style="4" width="26.85546875" collapsed="true"/>
@@ -1347,7 +1478,9 @@
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A3" s="6"/>
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
       <c r="B3" s="39" t="s">
         <v>99</v>
       </c>
@@ -1366,7 +1499,7 @@
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="39" t="s">
         <v>113</v>
@@ -1386,7 +1519,7 @@
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1">
       <c r="A5" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="39" t="s">
         <v>97</v>
@@ -1404,97 +1537,183 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="8" t="s">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="E6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1">
       <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1">
       <c r="A9" s="6"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="A11" s="6">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D7:D11 D2:D5 C5 C2">
-    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="No">
+  <conditionalFormatting sqref="D12:D16 C2 D2:D10 C5:C10">
+    <cfRule type="containsText" dxfId="1" priority="13" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="0" priority="14" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D16">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2609,10 +2828,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2620,14 +2839,20 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="8" max="11" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.484375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:18" ht="15">
       <c r="A1" s="38" t="s">
         <v>76</v>
       </c>
@@ -2637,13 +2862,49 @@
       <c r="C1" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" ht="15">
+      <c r="D1" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+    </row>
+    <row r="2" spans="1:18" ht="15">
       <c r="A2" s="39" t="s">
         <v>86</v>
       </c>
@@ -2653,11 +2914,103 @@
       <c r="C2" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+    </row>
+    <row r="3" spans="1:18" ht="15">
+      <c r="A3" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="41">
+        <v>727</v>
+      </c>
+      <c r="F3" s="41">
+        <v>369</v>
+      </c>
+      <c r="G3" s="41">
+        <v>320</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+    </row>
+    <row r="4" spans="1:18" ht="15">
+      <c r="A4" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="41">
+        <v>727</v>
+      </c>
+      <c r="F4" s="41">
+        <v>369</v>
+      </c>
+      <c r="G4" s="41">
+        <v>320</v>
+      </c>
+      <c r="H4" s="54">
+        <v>10000</v>
+      </c>
+      <c r="I4" s="41">
+        <v>1</v>
+      </c>
+      <c r="J4" s="41">
+        <v>1</v>
+      </c>
+      <c r="K4" s="41">
+        <v>1</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2668,8 +3021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2682,7 +3035,7 @@
     <col min="6" max="6" customWidth="true" width="22.28515625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="11.0" collapsed="true"/>
     <col min="8" max="8" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.48828125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="20.85546875" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="9.7109375" collapsed="true"/>
@@ -2690,7 +3043,7 @@
     <col min="14" max="14" customWidth="true" width="10.28515625" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
     <col min="16" max="16" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.484375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
     <col min="18" max="18" customWidth="true" width="12.85546875" collapsed="true"/>
     <col min="19" max="19" customWidth="true" width="19.85546875" collapsed="true"/>
     <col min="20" max="20" customWidth="true" width="22.140625" collapsed="true"/>
@@ -2788,7 +3141,7 @@
       <c r="G2" s="41"/>
       <c r="H2" s="42"/>
       <c r="I2" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J2" s="47" t="s">
         <v>96</v>

--- a/AzentioAutomationFramework_FMS_Ajith/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Ajith/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -14,16 +14,19 @@
     <sheet name="FMSParam_login" sheetId="2" r:id="rId5"/>
     <sheet name="FMS_Login" sheetId="1" r:id="rId6"/>
     <sheet name="SadsLogin" sheetId="3" r:id="rId7"/>
-    <sheet name="FacilitiesManagement" sheetId="12" r:id="rId8"/>
-    <sheet name="ApplicationForFinancialFacility" sheetId="11" r:id="rId9"/>
-    <sheet name="TestExecution" sheetId="7" r:id="rId10"/>
+    <sheet name="RequestForFinancing_482" sheetId="15" r:id="rId8"/>
+    <sheet name="CollateralManagement_482" sheetId="14" r:id="rId9"/>
+    <sheet name="DrawDownRequest" sheetId="13" r:id="rId10"/>
+    <sheet name="FacilitiesManagement" sheetId="12" r:id="rId11"/>
+    <sheet name="ApplicationForFinancialFacility" sheetId="11" r:id="rId12"/>
+    <sheet name="TestExecution" sheetId="7" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="192">
   <si>
     <t>Password</t>
   </si>
@@ -269,9 +272,6 @@
     <t>New Facility</t>
   </si>
   <si>
-    <t>CIF NO</t>
-  </si>
-  <si>
     <t>Facility Type</t>
   </si>
   <si>
@@ -446,16 +446,166 @@
     <t>UserID</t>
   </si>
   <si>
-    <t xml:space="preserve">4523 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4533 </t>
-  </si>
-  <si>
     <t xml:space="preserve">4547 </t>
   </si>
   <si>
-    <t xml:space="preserve">4556 </t>
+    <t>AT_DDR_009</t>
+  </si>
+  <si>
+    <t>AT_DDR_009_D1</t>
+  </si>
+  <si>
+    <t>FacilityCode</t>
+  </si>
+  <si>
+    <t>DrawDownTypeCode</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Test DD</t>
+  </si>
+  <si>
+    <t>FCAmount</t>
+  </si>
+  <si>
+    <t>DrawDownRequestCode</t>
+  </si>
+  <si>
+    <t>UpdatedFCAmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4643 </t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>AT_CM_025</t>
+  </si>
+  <si>
+    <t>AT_CM_025_D1</t>
+  </si>
+  <si>
+    <t>ValidFromDate</t>
+  </si>
+  <si>
+    <t>ValidToDate</t>
+  </si>
+  <si>
+    <t>22/07/2021</t>
+  </si>
+  <si>
+    <t>AT_CM_026</t>
+  </si>
+  <si>
+    <t>AT_CM_027</t>
+  </si>
+  <si>
+    <t>AT_CM_026_D1</t>
+  </si>
+  <si>
+    <t>AT_CM_027_D1</t>
+  </si>
+  <si>
+    <t>CustomValue</t>
+  </si>
+  <si>
+    <t>CollateralRequestCode</t>
+  </si>
+  <si>
+    <t>FCValuedsf</t>
+  </si>
+  <si>
+    <t>DateAccepted</t>
+  </si>
+  <si>
+    <t>ValuationDate</t>
+  </si>
+  <si>
+    <t>NameProperty</t>
+  </si>
+  <si>
+    <t>CountryCode</t>
+  </si>
+  <si>
+    <t>AT_CM_026_01</t>
+  </si>
+  <si>
+    <t>1138</t>
+  </si>
+  <si>
+    <t>AT_RF_025</t>
+  </si>
+  <si>
+    <t>AT_RF_025_D1</t>
+  </si>
+  <si>
+    <t>AT_RF_008</t>
+  </si>
+  <si>
+    <t>AT_RF_008_D1</t>
+  </si>
+  <si>
+    <t>No of Payments</t>
+  </si>
+  <si>
+    <t>Pay Every</t>
+  </si>
+  <si>
+    <t>AT_RF_064</t>
+  </si>
+  <si>
+    <t>AT_RF_064_D1</t>
+  </si>
+  <si>
+    <t>Purpose Of Financing</t>
+  </si>
+  <si>
+    <t>AT_RF_121</t>
+  </si>
+  <si>
+    <t>AT_RF_121_D1</t>
+  </si>
+  <si>
+    <t>Weight Field</t>
+  </si>
+  <si>
+    <t>AT_RF_164</t>
+  </si>
+  <si>
+    <t>AT_RF_164_D1</t>
+  </si>
+  <si>
+    <t>AT_RF_166</t>
+  </si>
+  <si>
+    <t>AT_RF_166_D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5030 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5082 </t>
+  </si>
+  <si>
+    <t>AT_RF_026</t>
+  </si>
+  <si>
+    <t>AT_RF_026_D1</t>
+  </si>
+  <si>
+    <t>Approve Coverage</t>
+  </si>
+  <si>
+    <t>29 Sa</t>
+  </si>
+  <si>
+    <t>CollateralManagement Code</t>
+  </si>
+  <si>
+    <t>1143</t>
   </si>
 </sst>
 </file>
@@ -695,7 +845,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -781,6 +931,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7"/>
@@ -1403,10 +1554,631 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="18.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15">
+      <c r="A1" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" s="44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15">
+      <c r="A2" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="41">
+        <v>727</v>
+      </c>
+      <c r="E2" s="41">
+        <v>369</v>
+      </c>
+      <c r="F2" s="41">
+        <v>320</v>
+      </c>
+      <c r="G2" s="54">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="41">
+        <v>1</v>
+      </c>
+      <c r="I2" s="41">
+        <v>1</v>
+      </c>
+      <c r="J2" s="41">
+        <v>1</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="41">
+        <v>2</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="O2" s="41">
+        <v>5000</v>
+      </c>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="41">
+        <v>6000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection sqref="A1:R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="8.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="11" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="16" max="17" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15">
+      <c r="A1" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+    </row>
+    <row r="2" spans="1:18" ht="15">
+      <c r="A2" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+    </row>
+    <row r="3" spans="1:18" ht="15">
+      <c r="A3" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="41">
+        <v>727</v>
+      </c>
+      <c r="F3" s="41">
+        <v>369</v>
+      </c>
+      <c r="G3" s="41">
+        <v>320</v>
+      </c>
+      <c r="H3" s="54">
+        <v>10000</v>
+      </c>
+      <c r="I3" s="41">
+        <v>1</v>
+      </c>
+      <c r="J3" s="41">
+        <v>1</v>
+      </c>
+      <c r="K3" s="41">
+        <v>1</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+    </row>
+    <row r="4" spans="1:18" ht="15">
+      <c r="A4" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="41">
+        <v>727</v>
+      </c>
+      <c r="F4" s="41">
+        <v>369</v>
+      </c>
+      <c r="G4" s="41">
+        <v>320</v>
+      </c>
+      <c r="H4" s="54">
+        <v>10000</v>
+      </c>
+      <c r="I4" s="41">
+        <v>1</v>
+      </c>
+      <c r="J4" s="41">
+        <v>1</v>
+      </c>
+      <c r="K4" s="41">
+        <v>1</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="P4" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="17.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15">
+      <c r="A1" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="S1" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="T1" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="U1" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="V1" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="W1" s="44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15">
+      <c r="A2" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="40"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+    </row>
+    <row r="3" spans="1:23" ht="15">
+      <c r="A3" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="41">
+        <v>727</v>
+      </c>
+      <c r="L3" s="41">
+        <v>221</v>
+      </c>
+      <c r="M3" s="41">
+        <v>10000</v>
+      </c>
+      <c r="N3" s="41">
+        <v>1</v>
+      </c>
+      <c r="O3" s="41">
+        <v>3</v>
+      </c>
+      <c r="P3" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="S3" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+    </row>
+    <row r="4" spans="1:23" ht="15">
+      <c r="A4" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="51">
+        <v>26</v>
+      </c>
+      <c r="U4" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="V4" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="W4" s="51">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15">
+      <c r="A5" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="41">
+        <v>369</v>
+      </c>
+      <c r="E5" s="41">
+        <v>320</v>
+      </c>
+      <c r="F5" s="41">
+        <v>2</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41">
+        <v>727</v>
+      </c>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+    </row>
+    <row r="6" spans="1:23" ht="15">
+      <c r="A6" s="50"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40" defaultRowHeight="15"/>
@@ -1460,16 +2232,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>94</v>
+      <c r="E2" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1482,15 +2254,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -1502,15 +2274,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -1522,15 +2294,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1538,16 +2310,18 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
       <c r="B6" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>123</v>
+      <c r="E6" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1557,18 +2331,18 @@
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1576,13 +2350,17 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A8" s="6"/>
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
       <c r="B8" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1590,13 +2368,19 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -1605,115 +2389,359 @@
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1">
       <c r="A10" s="6">
-        <v>6</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>124</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>168</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1">
       <c r="A11" s="6">
-        <v>7</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="6"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="6"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D12:D16 C2 D2:D10 C5:C10">
-    <cfRule type="containsText" dxfId="1" priority="13" operator="containsText" text="No">
+  <conditionalFormatting sqref="D23:D27 C2 C5:C17 D2:D21 C11:D11">
+    <cfRule type="containsText" dxfId="7" priority="23" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="14" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="6" priority="24" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C21">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",B15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",B15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D27">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2531,7 +3559,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E13"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -2828,101 +3856,510 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="8" max="11" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="10.484375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="13" max="15" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="26.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15">
+      <c r="A1" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q1" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="R1" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="S1" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="T1" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="U1" s="44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="41">
+        <v>727</v>
+      </c>
+      <c r="E2" s="41">
+        <v>221</v>
+      </c>
+      <c r="F2" s="41">
+        <v>320</v>
+      </c>
+      <c r="G2" s="54">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="54"/>
+      <c r="I2" s="41">
+        <v>1</v>
+      </c>
+      <c r="J2" s="41">
+        <v>1</v>
+      </c>
+      <c r="K2" s="41">
+        <v>1</v>
+      </c>
+      <c r="L2" s="53"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="41">
+        <v>3</v>
+      </c>
+      <c r="R2" s="46"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="41">
+        <v>727</v>
+      </c>
+      <c r="E3" s="41">
+        <v>740</v>
+      </c>
+      <c r="F3" s="41">
+        <v>320</v>
+      </c>
+      <c r="G3" s="54">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="54">
+        <v>10000</v>
+      </c>
+      <c r="I3" s="41">
+        <v>1</v>
+      </c>
+      <c r="J3" s="41">
+        <v>1</v>
+      </c>
+      <c r="K3" s="41">
+        <v>1</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41">
+        <v>320</v>
+      </c>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="41">
+        <v>50</v>
+      </c>
+      <c r="U4" s="41">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="41">
+        <v>727</v>
+      </c>
+      <c r="E5" s="41">
+        <v>221</v>
+      </c>
+      <c r="F5" s="41">
+        <v>320</v>
+      </c>
+      <c r="G5" s="54">
+        <v>10000</v>
+      </c>
+      <c r="H5" s="54"/>
+      <c r="I5" s="41">
+        <v>1</v>
+      </c>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="41">
+        <v>123.23</v>
+      </c>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="41">
+        <v>727</v>
+      </c>
+      <c r="E7" s="41">
+        <v>740</v>
+      </c>
+      <c r="F7" s="41">
+        <v>320</v>
+      </c>
+      <c r="G7" s="54">
+        <v>10000</v>
+      </c>
+      <c r="H7" s="54">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="41">
+        <v>2</v>
+      </c>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="41">
+        <v>727</v>
+      </c>
+      <c r="E8" s="41">
+        <v>740</v>
+      </c>
+      <c r="F8" s="41">
+        <v>320</v>
+      </c>
+      <c r="G8" s="54">
+        <v>10000</v>
+      </c>
+      <c r="H8" s="54">
+        <v>10000</v>
+      </c>
+      <c r="I8" s="41">
+        <v>2</v>
+      </c>
+      <c r="J8" s="41">
+        <v>1</v>
+      </c>
+      <c r="K8" s="41">
+        <v>1</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>132</v>
+      <c r="C1" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>116</v>
       </c>
       <c r="H1" s="44" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="K1" s="44" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="L1" s="44" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="M1" s="44" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="N1" s="44" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="O1" s="44" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="P1" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
+        <v>165</v>
+      </c>
+      <c r="Q1" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="R1" s="44" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="2" spans="1:18" ht="15">
       <c r="A2" s="39" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+        <v>151</v>
+      </c>
+      <c r="C2" s="41">
+        <v>6</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="41">
+        <v>999</v>
+      </c>
+      <c r="I2" s="41">
+        <v>3.69</v>
+      </c>
       <c r="J2" s="41"/>
       <c r="K2" s="41"/>
-      <c r="L2" s="53"/>
+      <c r="L2" s="41"/>
       <c r="M2" s="41"/>
       <c r="N2" s="41"/>
       <c r="O2" s="41"/>
@@ -2932,370 +4369,82 @@
     </row>
     <row r="3" spans="1:18" ht="15">
       <c r="A3" s="39" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="41">
+        <v>157</v>
+      </c>
+      <c r="C3" s="41">
+        <v>6</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="41">
+        <v>999</v>
+      </c>
+      <c r="I3" s="41">
+        <v>389</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="41">
         <v>727</v>
       </c>
-      <c r="F3" s="41">
-        <v>369</v>
-      </c>
-      <c r="G3" s="41">
-        <v>320</v>
-      </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="53"/>
+      <c r="L3" s="41">
+        <v>1500</v>
+      </c>
       <c r="M3" s="41"/>
       <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
+      <c r="O3" s="41">
+        <v>727</v>
+      </c>
+      <c r="P3" s="41">
+        <v>320</v>
+      </c>
+      <c r="Q3" s="41">
+        <v>1069</v>
+      </c>
+      <c r="R3" s="41">
+        <v>324</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="15">
       <c r="A4" s="39" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="41">
-        <v>727</v>
-      </c>
-      <c r="F4" s="41">
-        <v>369</v>
-      </c>
-      <c r="G4" s="41">
-        <v>320</v>
-      </c>
-      <c r="H4" s="54">
-        <v>10000</v>
-      </c>
-      <c r="I4" s="41">
-        <v>1</v>
-      </c>
-      <c r="J4" s="41">
-        <v>1</v>
-      </c>
-      <c r="K4" s="41">
-        <v>1</v>
-      </c>
-      <c r="L4" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="M4" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="O4" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="P4" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
+        <v>158</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X6"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="17.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="15">
-      <c r="A1" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q1" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="R1" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="S1" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="T1" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="U1" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="V1" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="W1" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="X1" s="44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="15">
-      <c r="A2" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-    </row>
-    <row r="3" spans="1:24" ht="15">
-      <c r="A3" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="L3" s="51">
-        <v>727</v>
-      </c>
-      <c r="M3" s="51">
-        <v>221</v>
-      </c>
-      <c r="N3" s="51">
-        <v>10000</v>
-      </c>
-      <c r="O3" s="51">
-        <v>1</v>
-      </c>
-      <c r="P3" s="51">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="R3" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="S3" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="T3" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-    </row>
-    <row r="4" spans="1:24" ht="15">
-      <c r="A4" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="51">
-        <v>26</v>
-      </c>
-      <c r="V4" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="W4" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="X4" s="51">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="15">
-      <c r="A5" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="41">
-        <v>727</v>
-      </c>
-      <c r="E5" s="41">
-        <v>369</v>
-      </c>
-      <c r="F5" s="41">
-        <v>320</v>
-      </c>
-      <c r="G5" s="41">
-        <v>2</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-    </row>
-    <row r="6" spans="1:24" ht="15">
-      <c r="A6" s="50"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AzentioAutomationFramework_FMS_Ajith/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Ajith/TestData/FMSTestData.xlsx
@@ -4,29 +4,31 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
     <sheet name="AllFeaturesTestDataInstructions" sheetId="5" r:id="rId2"/>
     <sheet name="CSMParam_login" sheetId="10" r:id="rId3"/>
     <sheet name="CSM_Login" sheetId="9" r:id="rId4"/>
-    <sheet name="FMSParam_login" sheetId="2" r:id="rId5"/>
-    <sheet name="FMS_Login" sheetId="1" r:id="rId6"/>
-    <sheet name="SadsLogin" sheetId="3" r:id="rId7"/>
-    <sheet name="RequestForFinancing_482" sheetId="15" r:id="rId8"/>
-    <sheet name="CollateralManagement_482" sheetId="14" r:id="rId9"/>
-    <sheet name="DrawDownRequest" sheetId="13" r:id="rId10"/>
-    <sheet name="FacilitiesManagement" sheetId="12" r:id="rId11"/>
-    <sheet name="ApplicationForFinancialFacility" sheetId="11" r:id="rId12"/>
-    <sheet name="TestExecution" sheetId="7" r:id="rId13"/>
+    <sheet name="FMS_Login" sheetId="1" r:id="rId5"/>
+    <sheet name="FMSParam_login" sheetId="2" r:id="rId6"/>
+    <sheet name="IISParam_login" sheetId="17" r:id="rId7"/>
+    <sheet name="IIS_Login" sheetId="16" r:id="rId8"/>
+    <sheet name="SadsLogin" sheetId="3" r:id="rId9"/>
+    <sheet name="RequestForFinancing_482" sheetId="15" r:id="rId10"/>
+    <sheet name="CollateralManagement_482" sheetId="14" r:id="rId11"/>
+    <sheet name="DrawDownRequest" sheetId="13" r:id="rId12"/>
+    <sheet name="FacilitiesManagement" sheetId="12" r:id="rId13"/>
+    <sheet name="ApplicationForFinancialFacility" sheetId="11" r:id="rId14"/>
+    <sheet name="TestExecution" sheetId="7" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="220">
   <si>
     <t>Password</t>
   </si>
@@ -599,13 +601,97 @@
     <t>Approve Coverage</t>
   </si>
   <si>
-    <t>29 Sa</t>
-  </si>
-  <si>
     <t>CollateralManagement Code</t>
   </si>
   <si>
     <t>1143</t>
+  </si>
+  <si>
+    <t>AT_AFF_051</t>
+  </si>
+  <si>
+    <t>AT_AFF_051_D1</t>
+  </si>
+  <si>
+    <t>ProfitRecognitionMethod</t>
+  </si>
+  <si>
+    <t>Straight Line</t>
+  </si>
+  <si>
+    <t>No of payments</t>
+  </si>
+  <si>
+    <t>IIS_User1</t>
+  </si>
+  <si>
+    <t>IIS_User2</t>
+  </si>
+  <si>
+    <t>IIS_User3</t>
+  </si>
+  <si>
+    <t>IIS_User4</t>
+  </si>
+  <si>
+    <t>IIS_User5</t>
+  </si>
+  <si>
+    <t>IIS_User6</t>
+  </si>
+  <si>
+    <t>IIS_User7</t>
+  </si>
+  <si>
+    <t>IIS_User8</t>
+  </si>
+  <si>
+    <t>IIS_User9</t>
+  </si>
+  <si>
+    <t>IIS_User10</t>
+  </si>
+  <si>
+    <t>IIS_User11</t>
+  </si>
+  <si>
+    <t>IIS_User12</t>
+  </si>
+  <si>
+    <t>IIS_ParamUser1</t>
+  </si>
+  <si>
+    <t>IIS_ParamUser2</t>
+  </si>
+  <si>
+    <t>IIS_ParamUser3</t>
+  </si>
+  <si>
+    <t>IIS_ParamUser4</t>
+  </si>
+  <si>
+    <t>IIS_ParamUser5</t>
+  </si>
+  <si>
+    <t>IIS_ParamUser6</t>
+  </si>
+  <si>
+    <t>IIS_ParamUser7</t>
+  </si>
+  <si>
+    <t>IIS_ParamUser8</t>
+  </si>
+  <si>
+    <t>IIS_ParamUser9</t>
+  </si>
+  <si>
+    <t>IIS_ParamUser10</t>
+  </si>
+  <si>
+    <t>IIS_ParamUser11</t>
+  </si>
+  <si>
+    <t>IIS_ParamUser12</t>
   </si>
 </sst>
 </file>
@@ -616,7 +702,7 @@
     <numFmt numFmtId="164" formatCode="&quot;Rs.&quot;#,##0.00;[Red]\-&quot;Rs.&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -691,12 +777,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF444444"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -845,7 +925,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -926,12 +1006,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Normal" xfId="7"/>
@@ -1342,7 +1423,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1358,14 +1439,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="19.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="11.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="27.7109375" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="31" width="17.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="18.140625" collapsed="true"/>
-    <col min="9" max="16384" style="3" width="28.85546875" collapsed="true"/>
+    <col min="1" max="1" width="19.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="18.28515625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" style="31" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="28.85546875" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1554,6 +1635,601 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="15" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="20" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="26.28515625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15">
+      <c r="A1" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q1" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="R1" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="S1" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="T1" s="44" t="s">
+        <v>188</v>
+      </c>
+      <c r="U1" s="44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="41">
+        <v>727</v>
+      </c>
+      <c r="E2" s="41">
+        <v>221</v>
+      </c>
+      <c r="F2" s="41">
+        <v>320</v>
+      </c>
+      <c r="G2" s="53">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="53"/>
+      <c r="I2" s="41">
+        <v>1</v>
+      </c>
+      <c r="J2" s="41">
+        <v>1</v>
+      </c>
+      <c r="K2" s="41">
+        <v>1</v>
+      </c>
+      <c r="L2" s="52"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="41">
+        <v>3</v>
+      </c>
+      <c r="R2" s="46"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="41">
+        <v>727</v>
+      </c>
+      <c r="E3" s="41">
+        <v>740</v>
+      </c>
+      <c r="F3" s="41">
+        <v>320</v>
+      </c>
+      <c r="G3" s="53">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="53">
+        <v>10000</v>
+      </c>
+      <c r="I3" s="41">
+        <v>1</v>
+      </c>
+      <c r="J3" s="41">
+        <v>1</v>
+      </c>
+      <c r="K3" s="41">
+        <v>1</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41">
+        <v>320</v>
+      </c>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="41">
+        <v>50</v>
+      </c>
+      <c r="U4" s="41">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="41">
+        <v>727</v>
+      </c>
+      <c r="E5" s="41">
+        <v>221</v>
+      </c>
+      <c r="F5" s="41">
+        <v>320</v>
+      </c>
+      <c r="G5" s="53">
+        <v>10000</v>
+      </c>
+      <c r="H5" s="53"/>
+      <c r="I5" s="41">
+        <v>1</v>
+      </c>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="41">
+        <v>123.23</v>
+      </c>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="41">
+        <v>727</v>
+      </c>
+      <c r="E7" s="41">
+        <v>740</v>
+      </c>
+      <c r="F7" s="41">
+        <v>320</v>
+      </c>
+      <c r="G7" s="53">
+        <v>10000</v>
+      </c>
+      <c r="H7" s="53">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="41">
+        <v>2</v>
+      </c>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="41">
+        <v>727</v>
+      </c>
+      <c r="E8" s="41">
+        <v>740</v>
+      </c>
+      <c r="F8" s="41">
+        <v>320</v>
+      </c>
+      <c r="G8" s="53">
+        <v>10000</v>
+      </c>
+      <c r="H8" s="53">
+        <v>10000</v>
+      </c>
+      <c r="I8" s="41">
+        <v>2</v>
+      </c>
+      <c r="J8" s="41">
+        <v>1</v>
+      </c>
+      <c r="K8" s="41">
+        <v>1</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15">
+      <c r="A1" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q1" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="R1" s="44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15">
+      <c r="A2" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="41">
+        <v>6</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="41">
+        <v>999</v>
+      </c>
+      <c r="I2" s="41">
+        <v>3.69</v>
+      </c>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+    </row>
+    <row r="3" spans="1:18" ht="15">
+      <c r="A3" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="41">
+        <v>6</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="41">
+        <v>999</v>
+      </c>
+      <c r="I3" s="41">
+        <v>389</v>
+      </c>
+      <c r="J3" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="41">
+        <v>727</v>
+      </c>
+      <c r="L3" s="41">
+        <v>1500</v>
+      </c>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41">
+        <v>727</v>
+      </c>
+      <c r="P3" s="41">
+        <v>320</v>
+      </c>
+      <c r="Q3" s="41">
+        <v>1069</v>
+      </c>
+      <c r="R3" s="41">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15">
+      <c r="A4" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1562,23 +2238,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15">
@@ -1653,7 +2329,7 @@
       <c r="F2" s="41">
         <v>320</v>
       </c>
-      <c r="G2" s="54">
+      <c r="G2" s="53">
         <v>10000</v>
       </c>
       <c r="H2" s="41">
@@ -1690,7 +2366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
@@ -1700,19 +2376,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="8.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="7" max="11" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="16" max="17" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13" customWidth="1" collapsed="1"/>
+    <col min="7" max="11" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15">
@@ -1785,7 +2461,7 @@
       <c r="I2" s="41"/>
       <c r="J2" s="41"/>
       <c r="K2" s="41"/>
-      <c r="L2" s="53"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="41"/>
       <c r="N2" s="41"/>
       <c r="O2" s="41"/>
@@ -1813,7 +2489,7 @@
       <c r="G3" s="41">
         <v>320</v>
       </c>
-      <c r="H3" s="54">
+      <c r="H3" s="53">
         <v>10000</v>
       </c>
       <c r="I3" s="41">
@@ -1825,7 +2501,7 @@
       <c r="K3" s="41">
         <v>1</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="52" t="s">
         <v>138</v>
       </c>
       <c r="M3" s="41" t="s">
@@ -1863,7 +2539,7 @@
       <c r="G4" s="41">
         <v>320</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="53">
         <v>10000</v>
       </c>
       <c r="I4" s="41">
@@ -1875,7 +2551,7 @@
       <c r="K4" s="41">
         <v>1</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="L4" s="52" t="s">
         <v>138</v>
       </c>
       <c r="M4" s="41" t="s">
@@ -1898,42 +2574,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="10.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="14" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="24.5703125" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15">
+    <row r="1" spans="1:25" ht="15">
       <c r="A1" s="45" t="s">
         <v>76</v>
       </c>
@@ -2003,8 +2681,14 @@
       <c r="W1" s="44" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" ht="15">
+      <c r="X1" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y1" s="38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15">
       <c r="A2" s="39" t="s">
         <v>92</v>
       </c>
@@ -2023,11 +2707,11 @@
         <v>95</v>
       </c>
       <c r="J2" s="40"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
       <c r="P2" s="46"/>
       <c r="Q2" s="47"/>
       <c r="R2" s="49"/>
@@ -2036,8 +2720,10 @@
       <c r="U2" s="48"/>
       <c r="V2" s="48"/>
       <c r="W2" s="48"/>
-    </row>
-    <row r="3" spans="1:23" ht="15">
+      <c r="X2" s="55"/>
+      <c r="Y2" s="54"/>
+    </row>
+    <row r="3" spans="1:25" ht="15">
       <c r="A3" s="39" t="s">
         <v>98</v>
       </c>
@@ -2045,7 +2731,9 @@
         <v>99</v>
       </c>
       <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
+      <c r="D3" s="41">
+        <v>221</v>
+      </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="42"/>
@@ -2069,7 +2757,7 @@
       <c r="O3" s="41">
         <v>3</v>
       </c>
-      <c r="P3" s="52" t="s">
+      <c r="P3" s="51" t="s">
         <v>120</v>
       </c>
       <c r="Q3" s="43" t="s">
@@ -2081,12 +2769,14 @@
       <c r="S3" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-    </row>
-    <row r="4" spans="1:23" ht="15">
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="41"/>
+    </row>
+    <row r="4" spans="1:25" ht="15">
       <c r="A4" s="39" t="s">
         <v>112</v>
       </c>
@@ -2101,29 +2791,31 @@
       <c r="H4" s="46"/>
       <c r="I4" s="47"/>
       <c r="J4" s="40"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
       <c r="P4" s="46"/>
       <c r="Q4" s="47"/>
       <c r="R4" s="49"/>
       <c r="S4" s="49"/>
-      <c r="T4" s="51">
+      <c r="T4" s="50">
         <v>26</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="V4" s="51" t="s">
+      <c r="V4" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="W4" s="51">
+      <c r="W4" s="50">
         <v>999</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" ht="15">
+      <c r="X4" s="55"/>
+      <c r="Y4" s="54"/>
+    </row>
+    <row r="5" spans="1:25" ht="15">
       <c r="A5" s="39" t="s">
         <v>96</v>
       </c>
@@ -2151,10 +2843,10 @@
       <c r="K5" s="41">
         <v>727</v>
       </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
       <c r="P5" s="46"/>
       <c r="Q5" s="49"/>
       <c r="R5" s="49"/>
@@ -2163,9 +2855,55 @@
       <c r="U5" s="48"/>
       <c r="V5" s="48"/>
       <c r="W5" s="48"/>
-    </row>
-    <row r="6" spans="1:23" ht="15">
-      <c r="A6" s="50"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="54"/>
+    </row>
+    <row r="6" spans="1:25" ht="15">
+      <c r="A6" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="41">
+        <v>740</v>
+      </c>
+      <c r="E6" s="41">
+        <v>320</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41">
+        <v>727</v>
+      </c>
+      <c r="L6" s="54"/>
+      <c r="M6" s="41">
+        <v>10000</v>
+      </c>
+      <c r="N6" s="41">
+        <v>1</v>
+      </c>
+      <c r="O6" s="54"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="48"/>
+      <c r="X6" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y6" s="41">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2173,26 +2911,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="9.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="4" width="27.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="4" width="15.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="4" width="14.5703125" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="4" width="26.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="4" width="28.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="4" width="27.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="4" width="26.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="4" width="25.85546875" collapsed="true"/>
-    <col min="11" max="16384" style="4" width="40.0" collapsed="true"/>
+    <col min="1" max="1" width="9.7109375" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.42578125" style="4" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.5703125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="26.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.28515625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.85546875" style="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="40" style="4" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" customHeight="1">
@@ -2310,19 +3048,17 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
+      <c r="A6" s="6"/>
       <c r="B6" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="7"/>
+        <v>191</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>192</v>
+      </c>
       <c r="D6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>122</v>
-      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -2331,18 +3067,18 @@
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>124</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -2351,12 +3087,14 @@
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>124</v>
+      </c>
       <c r="D8" s="7" t="s">
         <v>25</v>
       </c>
@@ -2369,14 +3107,12 @@
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1">
       <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>171</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
@@ -2389,13 +3125,13 @@
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>25</v>
@@ -2409,13 +3145,13 @@
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>25</v>
@@ -2429,13 +3165,13 @@
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>25</v>
@@ -2449,13 +3185,13 @@
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>25</v>
@@ -2469,13 +3205,13 @@
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>25</v>
@@ -2487,15 +3223,15 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>25</v>
@@ -2507,14 +3243,16 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>183</v>
+      </c>
       <c r="D16" s="7" t="s">
         <v>25</v>
       </c>
@@ -2527,14 +3265,12 @@
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>125</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
         <v>25</v>
       </c>
@@ -2547,13 +3283,13 @@
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>25</v>
@@ -2565,15 +3301,15 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1">
+    <row r="19" spans="1:10" ht="18.75" customHeight="1">
       <c r="A19" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>25</v>
@@ -2587,20 +3323,18 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1">
       <c r="A20" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>155</v>
-      </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -2609,10 +3343,10 @@
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>157</v>
@@ -2620,44 +3354,54 @@
       <c r="D21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="16.5" customHeight="1">
       <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="6"/>
@@ -2698,7 +3442,7 @@
     <row r="27" spans="1:10">
       <c r="A27" s="6"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="15"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2707,8 +3451,20 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="6"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D23:D27 C2 C5:C17 D2:D21 C11:D11">
+  <conditionalFormatting sqref="D24:D28 C2 C5:C18 D2:D22 C12:D12">
     <cfRule type="containsText" dxfId="7" priority="23" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
@@ -2716,32 +3472,32 @@
       <formula>NOT(ISERROR(SEARCH("Yes",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
+  <conditionalFormatting sqref="C19">
     <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",C18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No",C19)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",C18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:C21">
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",C19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
+  <conditionalFormatting sqref="C20:C22">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",B15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("No",B16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",B15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Yes",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D28">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2760,10 +3516,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="123" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="30.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="38.42578125" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="123.0" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.140625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="123" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2829,12 +3585,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="18.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="22.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="27.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="34.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
+    <col min="1" max="1" width="18.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.28515625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3074,12 +3830,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="22.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="21.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="18.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="21.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
+    <col min="1" max="1" width="22.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.28515625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3314,39 +4070,39 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
+    <col min="1" max="1" width="13.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.28515625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="35" t="s">
+      <c r="D1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>36</v>
@@ -3363,7 +4119,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -3380,7 +4136,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>46</v>
@@ -3397,7 +4153,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>47</v>
@@ -3414,7 +4170,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>48</v>
@@ -3431,7 +4187,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>49</v>
@@ -3448,7 +4204,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>50</v>
@@ -3465,7 +4221,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>51</v>
@@ -3482,7 +4238,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>52</v>
@@ -3499,7 +4255,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>53</v>
@@ -3516,7 +4272,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>54</v>
@@ -3533,7 +4289,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>55</v>
@@ -3558,40 +4314,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.28515625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>36</v>
@@ -3608,7 +4364,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -3625,7 +4381,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>46</v>
@@ -3642,7 +4398,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>47</v>
@@ -3659,7 +4415,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>48</v>
@@ -3676,7 +4432,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>49</v>
@@ -3693,7 +4449,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>50</v>
@@ -3710,7 +4466,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>51</v>
@@ -3727,7 +4483,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>52</v>
@@ -3744,7 +4500,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>53</v>
@@ -3761,7 +4517,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>54</v>
@@ -3778,7 +4534,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>55</v>
@@ -3800,6 +4556,496 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.28515625" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>321</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1">
+        <v>321</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1">
+        <v>321</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1">
+        <v>321</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1">
+        <v>321</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1">
+        <v>321</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1">
+        <v>321</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1">
+        <v>321</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1">
+        <v>321</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1">
+        <v>321</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1">
+        <v>321</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="1.045275590551181" bottom="1.045275590551181" header="0.84842519685039375" footer="0.84842519685039375"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.28515625" style="2" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>321</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1">
+        <v>321</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1">
+        <v>321</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1">
+        <v>321</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1">
+        <v>321</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1">
+        <v>321</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1">
+        <v>321</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1">
+        <v>321</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1">
+        <v>321</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1">
+        <v>321</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1">
+        <v>321</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="1.045275590551181" bottom="1.045275590551181" header="0.84842519685039375" footer="0.84842519685039375"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -3809,10 +5055,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="9.28515625" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.28515625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3852,599 +5098,4 @@
   <pageMargins left="0.7" right="0.7" top="1.045275590551181" bottom="1.045275590551181" header="0.84842519685039375" footer="0.84842519685039375"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.484375" collapsed="true"/>
-    <col min="13" max="15" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="26.28515625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="15">
-      <c r="A1" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q1" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="R1" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="S1" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="T1" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="U1" s="44" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="41">
-        <v>727</v>
-      </c>
-      <c r="E2" s="41">
-        <v>221</v>
-      </c>
-      <c r="F2" s="41">
-        <v>320</v>
-      </c>
-      <c r="G2" s="54">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="41">
-        <v>1</v>
-      </c>
-      <c r="J2" s="41">
-        <v>1</v>
-      </c>
-      <c r="K2" s="41">
-        <v>1</v>
-      </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="41">
-        <v>3</v>
-      </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="41">
-        <v>727</v>
-      </c>
-      <c r="E3" s="41">
-        <v>740</v>
-      </c>
-      <c r="F3" s="41">
-        <v>320</v>
-      </c>
-      <c r="G3" s="54">
-        <v>10000</v>
-      </c>
-      <c r="H3" s="54">
-        <v>10000</v>
-      </c>
-      <c r="I3" s="41">
-        <v>1</v>
-      </c>
-      <c r="J3" s="41">
-        <v>1</v>
-      </c>
-      <c r="K3" s="41">
-        <v>1</v>
-      </c>
-      <c r="L3" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="O3" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="43" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41">
-        <v>320</v>
-      </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="41">
-        <v>50</v>
-      </c>
-      <c r="U4" s="41">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="41">
-        <v>727</v>
-      </c>
-      <c r="E5" s="41">
-        <v>221</v>
-      </c>
-      <c r="F5" s="41">
-        <v>320</v>
-      </c>
-      <c r="G5" s="54">
-        <v>10000</v>
-      </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="41">
-        <v>1</v>
-      </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="41">
-        <v>123.23</v>
-      </c>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="41">
-        <v>727</v>
-      </c>
-      <c r="E7" s="41">
-        <v>740</v>
-      </c>
-      <c r="F7" s="41">
-        <v>320</v>
-      </c>
-      <c r="G7" s="54">
-        <v>10000</v>
-      </c>
-      <c r="H7" s="54">
-        <v>10000</v>
-      </c>
-      <c r="I7" s="41">
-        <v>2</v>
-      </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="41">
-        <v>727</v>
-      </c>
-      <c r="E8" s="41">
-        <v>740</v>
-      </c>
-      <c r="F8" s="41">
-        <v>320</v>
-      </c>
-      <c r="G8" s="54">
-        <v>10000</v>
-      </c>
-      <c r="H8" s="54">
-        <v>10000</v>
-      </c>
-      <c r="I8" s="41">
-        <v>2</v>
-      </c>
-      <c r="J8" s="41">
-        <v>1</v>
-      </c>
-      <c r="K8" s="41">
-        <v>1</v>
-      </c>
-      <c r="L8" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="12.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" ht="15">
-      <c r="A1" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="M1" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="P1" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q1" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="R1" s="44" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15">
-      <c r="A2" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="41">
-        <v>6</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="H2" s="41">
-        <v>999</v>
-      </c>
-      <c r="I2" s="41">
-        <v>3.69</v>
-      </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-    </row>
-    <row r="3" spans="1:18" ht="15">
-      <c r="A3" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="41">
-        <v>6</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="41">
-        <v>999</v>
-      </c>
-      <c r="I3" s="41">
-        <v>389</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="K3" s="41">
-        <v>727</v>
-      </c>
-      <c r="L3" s="41">
-        <v>1500</v>
-      </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41">
-        <v>727</v>
-      </c>
-      <c r="P3" s="41">
-        <v>320</v>
-      </c>
-      <c r="Q3" s="41">
-        <v>1069</v>
-      </c>
-      <c r="R3" s="41">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15">
-      <c r="A4" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/AzentioAutomationFramework_FMS_Ajith/TestData/FMSTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Ajith/TestData/FMSTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="971" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="AllFeaturesTestExecutionInfo" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="222">
   <si>
     <t>Password</t>
   </si>
@@ -478,9 +478,6 @@
     <t>UpdatedFCAmount</t>
   </si>
   <si>
-    <t xml:space="preserve">4643 </t>
-  </si>
-  <si>
     <t>1612</t>
   </si>
   <si>
@@ -692,6 +689,15 @@
   </si>
   <si>
     <t>IIS_ParamUser12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5286 </t>
+  </si>
+  <si>
+    <t>Facility Rating</t>
+  </si>
+  <si>
+    <t>Total Value</t>
   </si>
 </sst>
 </file>
@@ -1710,30 +1716,30 @@
         <v>134</v>
       </c>
       <c r="P1" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q1" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="Q1" s="44" t="s">
-        <v>173</v>
-      </c>
       <c r="R1" s="44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S1" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T1" s="44" t="s">
+        <v>187</v>
+      </c>
+      <c r="U1" s="44" t="s">
         <v>188</v>
-      </c>
-      <c r="U1" s="44" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>170</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>171</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>79</v>
@@ -1777,10 +1783,10 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>168</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>169</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>79</v>
@@ -1810,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M3" s="41" t="s">
         <v>132</v>
@@ -1830,10 +1836,10 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>186</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>187</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="41"/>
@@ -1847,7 +1853,7 @@
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
       <c r="L4" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M4" s="41"/>
       <c r="N4" s="41"/>
@@ -1865,10 +1871,10 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>174</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>175</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>79</v>
@@ -1904,10 +1910,10 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="43" t="s">
         <v>177</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>178</v>
       </c>
       <c r="C6" s="40"/>
       <c r="D6" s="41"/>
@@ -1933,10 +1939,10 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="43" t="s">
         <v>180</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>181</v>
       </c>
       <c r="C7" s="40" t="s">
         <v>79</v>
@@ -1974,10 +1980,10 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="43" t="s">
         <v>182</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>183</v>
       </c>
       <c r="C8" s="40" t="s">
         <v>79</v>
@@ -2007,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
@@ -2063,10 +2069,10 @@
         <v>114</v>
       </c>
       <c r="D1" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="44" t="s">
         <v>152</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>153</v>
       </c>
       <c r="F1" s="44" t="s">
         <v>115</v>
@@ -2078,51 +2084,51 @@
         <v>118</v>
       </c>
       <c r="I1" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" s="44" t="s">
         <v>159</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>160</v>
       </c>
       <c r="K1" s="44" t="s">
         <v>102</v>
       </c>
       <c r="L1" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="N1" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="O1" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="P1" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="44" t="s">
-        <v>165</v>
-      </c>
       <c r="Q1" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="R1" s="44" t="s">
         <v>164</v>
-      </c>
-      <c r="R1" s="44" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15">
       <c r="A2" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="39" t="s">
         <v>150</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>151</v>
       </c>
       <c r="C2" s="41">
         <v>6</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" s="41" t="s">
         <v>95</v>
@@ -2148,19 +2154,19 @@
     </row>
     <row r="3" spans="1:18" ht="15">
       <c r="A3" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="41">
         <v>6</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F3" s="41" t="s">
         <v>95</v>
@@ -2175,7 +2181,7 @@
         <v>389</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K3" s="41">
         <v>727</v>
@@ -2200,10 +2206,10 @@
     </row>
     <row r="4" spans="1:18" ht="15">
       <c r="A4" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -2342,10 +2348,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="L2" s="46" t="s">
         <v>148</v>
-      </c>
-      <c r="L2" s="46" t="s">
-        <v>149</v>
       </c>
       <c r="M2" s="41">
         <v>2</v>
@@ -2371,7 +2377,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection sqref="A1:R3"/>
+      <selection activeCell="J1" sqref="J1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2576,10 +2582,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R47" sqref="R47"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2589,29 +2595,32 @@
     <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="14" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.5703125" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="14" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="24.5703125" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" customWidth="1"/>
+    <col min="28" max="28" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15">
+    <row r="1" spans="1:28" ht="15">
       <c r="A1" s="45" t="s">
         <v>76</v>
       </c>
@@ -2628,67 +2637,76 @@
         <v>81</v>
       </c>
       <c r="F1" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="J1" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="K1" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="L1" s="44" t="s">
         <v>102</v>
-      </c>
-      <c r="L1" s="44" t="s">
-        <v>103</v>
       </c>
       <c r="M1" s="44" t="s">
         <v>104</v>
       </c>
       <c r="N1" s="44" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="P1" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="Q1" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="R1" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="S1" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="T1" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="U1" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="U1" s="44" t="s">
+      <c r="V1" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="W1" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="X1" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="38" t="s">
-        <v>193</v>
-      </c>
       <c r="Y1" s="38" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="15">
+        <v>192</v>
+      </c>
+      <c r="Z1" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA1" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB1" s="44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="15">
       <c r="A2" s="39" t="s">
         <v>92</v>
       </c>
@@ -2699,31 +2717,34 @@
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="46" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="J2" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="40"/>
-      <c r="K2" s="54"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="54"/>
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
       <c r="O2" s="54"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="49"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="47"/>
       <c r="S2" s="49"/>
-      <c r="T2" s="48"/>
+      <c r="T2" s="49"/>
       <c r="U2" s="48"/>
       <c r="V2" s="48"/>
       <c r="W2" s="48"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="54"/>
-    </row>
-    <row r="3" spans="1:25" ht="15">
+      <c r="X2" s="48"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+    </row>
+    <row r="3" spans="1:28" ht="15">
       <c r="A3" s="39" t="s">
         <v>98</v>
       </c>
@@ -2736,47 +2757,48 @@
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="40" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="41">
+      <c r="L3" s="41">
         <v>727</v>
-      </c>
-      <c r="L3" s="41">
-        <v>221</v>
       </c>
       <c r="M3" s="41">
         <v>10000</v>
       </c>
-      <c r="N3" s="41">
-        <v>1</v>
-      </c>
+      <c r="N3" s="41"/>
       <c r="O3" s="41">
+        <v>1</v>
+      </c>
+      <c r="P3" s="41">
         <v>3</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="Q3" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="R3" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="R3" s="43" t="s">
+      <c r="S3" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="S3" s="43" t="s">
+      <c r="T3" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="T3" s="50"/>
       <c r="U3" s="50"/>
       <c r="V3" s="50"/>
       <c r="W3" s="50"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="41"/>
-    </row>
-    <row r="4" spans="1:25" ht="15">
+      <c r="X3" s="50"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+    </row>
+    <row r="4" spans="1:28" ht="15">
       <c r="A4" s="39" t="s">
         <v>112</v>
       </c>
@@ -2787,35 +2809,38 @@
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="54"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="54"/>
       <c r="M4" s="54"/>
       <c r="N4" s="54"/>
       <c r="O4" s="54"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="49"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="47"/>
       <c r="S4" s="49"/>
-      <c r="T4" s="50">
+      <c r="T4" s="49"/>
+      <c r="U4" s="50">
         <v>26</v>
-      </c>
-      <c r="U4" s="50" t="s">
-        <v>117</v>
       </c>
       <c r="V4" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="W4" s="50">
+      <c r="W4" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="X4" s="50">
         <v>999</v>
       </c>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="54"/>
-    </row>
-    <row r="5" spans="1:25" ht="15">
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+    </row>
+    <row r="5" spans="1:28" ht="15">
       <c r="A5" s="39" t="s">
         <v>96</v>
       </c>
@@ -2831,39 +2856,42 @@
       <c r="E5" s="41">
         <v>320</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="41"/>
+      <c r="G5" s="41">
         <v>2</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="H5" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41">
+      <c r="I5" s="46"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="41">
         <v>727</v>
       </c>
-      <c r="L5" s="54"/>
       <c r="M5" s="54"/>
       <c r="N5" s="54"/>
       <c r="O5" s="54"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="49"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="46"/>
       <c r="R5" s="49"/>
       <c r="S5" s="49"/>
-      <c r="T5" s="48"/>
+      <c r="T5" s="49"/>
       <c r="U5" s="48"/>
       <c r="V5" s="48"/>
       <c r="W5" s="48"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="54"/>
-    </row>
-    <row r="6" spans="1:25" ht="15">
+      <c r="X5" s="48"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+    </row>
+    <row r="6" spans="1:28" ht="15">
       <c r="A6" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="39" t="s">
         <v>191</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>192</v>
       </c>
       <c r="C6" s="40" t="s">
         <v>79</v>
@@ -2874,35 +2902,46 @@
       <c r="E6" s="41">
         <v>320</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41">
+      <c r="F6" s="41">
+        <v>1</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="41">
         <v>727</v>
       </c>
-      <c r="L6" s="54"/>
       <c r="M6" s="41">
         <v>10000</v>
       </c>
       <c r="N6" s="41">
-        <v>1</v>
-      </c>
-      <c r="O6" s="54"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="49"/>
+        <v>10000</v>
+      </c>
+      <c r="O6" s="41">
+        <v>1</v>
+      </c>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="46"/>
       <c r="R6" s="49"/>
       <c r="S6" s="49"/>
-      <c r="T6" s="48"/>
+      <c r="T6" s="49"/>
       <c r="U6" s="48"/>
       <c r="V6" s="48"/>
       <c r="W6" s="48"/>
-      <c r="X6" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y6" s="41">
+      <c r="X6" s="48"/>
+      <c r="Y6" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z6" s="41">
         <v>10</v>
+      </c>
+      <c r="AA6" s="41">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="41">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3050,10 +3089,10 @@
     <row r="6" spans="1:10" ht="18.75" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>191</v>
-      </c>
-      <c r="C6" s="56" t="s">
-        <v>192</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>25</v>
@@ -3128,10 +3167,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>25</v>
@@ -3148,10 +3187,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>25</v>
@@ -3168,10 +3207,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>25</v>
@@ -3188,10 +3227,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>25</v>
@@ -3208,10 +3247,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>25</v>
@@ -3228,10 +3267,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>25</v>
@@ -3248,10 +3287,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>25</v>
@@ -3326,10 +3365,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>25</v>
@@ -3346,16 +3385,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -3368,10 +3407,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>25</v>
@@ -4559,7 +4598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -4592,7 +4631,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>36</v>
@@ -4609,7 +4648,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -4626,7 +4665,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>46</v>
@@ -4643,7 +4682,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>47</v>
@@ -4660,7 +4699,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>48</v>
@@ -4677,7 +4716,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>49</v>
@@ -4694,7 +4733,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>50</v>
@@ -4711,7 +4750,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>51</v>
@@ -4728,7 +4767,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>52</v>
@@ -4745,7 +4784,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>53</v>
@@ -4762,7 +4801,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>54</v>
@@ -4779,7 +4818,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>55</v>
@@ -4837,7 +4876,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>36</v>
@@ -4854,7 +4893,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -4871,7 +4910,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>46</v>
@@ -4888,7 +4927,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>47</v>
@@ -4905,7 +4944,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>48</v>
@@ -4922,7 +4961,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>49</v>
@@ -4939,7 +4978,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>50</v>
@@ -4956,7 +4995,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>51</v>
@@ -4973,7 +5012,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>52</v>
@@ -4990,7 +5029,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>53</v>
@@ -5007,7 +5046,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>54</v>
@@ -5024,7 +5063,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>55</v>
